--- a/biology/Botanique/Cyperus_dewildeorum/Cyperus_dewildeorum.xlsx
+++ b/biology/Botanique/Cyperus_dewildeorum/Cyperus_dewildeorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyperus dewildeorum est une espèce d'herbes de la famille des Cyperaceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique dewildeorum rend hommage au botaniste néerlandais Willem J.J.O. de Wilde[3], collecteur des premiers spécimens au Cameroun[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique dewildeorum rend hommage au botaniste néerlandais Willem J.J.O. de Wilde, collecteur des premiers spécimens au Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyperus dewildeorum est un basionyme de Pycreus dewildeorum[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyperus dewildeorum est un basionyme de Pycreus dewildeorum
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique de l'extrême-nord du Cameroun, très rare, l'espèce n'a longtemps été connue qu'à travers la collecte de W.J.J.O. De Wilde et B.E.E. De Wilde-Duyfjes le 12 septembre 1964 dans une zone herbeuse et marécageuse, à 400 m d'altitude, à environ 15 km au nord-est de Maroua en direction de Waza[4].
-Cependant une présence au Tchad est signalée[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique de l'extrême-nord du Cameroun, très rare, l'espèce n'a longtemps été connue qu'à travers la collecte de W.J.J.O. De Wilde et B.E.E. De Wilde-Duyfjes le 12 septembre 1964 dans une zone herbeuse et marécageuse, à 400 m d'altitude, à environ 15 km au nord-est de Maroua en direction de Waza.
+Cependant une présence au Tchad est signalée.
 </t>
         </is>
       </c>
